--- a/data_config/BattleProcessWaveNode.xlsx
+++ b/data_config/BattleProcessWaveNode.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16650" windowHeight="11655"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -307,12 +307,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1138,7 +1138,7 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1276,7 +1276,7 @@
         <v>1000210</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:9">

--- a/data_config/BattleProcessWaveNode.xlsx
+++ b/data_config/BattleProcessWaveNode.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1137,8 +1137,8 @@
   <sheetPr/>
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1264,10 +1264,10 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="F4" s="1">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G4" s="2">
         <v>1</v>
@@ -1299,7 +1299,7 @@
         <v>3000</v>
       </c>
       <c r="G5" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>1000202</v>

--- a/data_config/BattleProcessWaveNode.xlsx
+++ b/data_config/BattleProcessWaveNode.xlsx
@@ -307,12 +307,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1276,7 +1276,7 @@
         <v>1000210</v>
       </c>
       <c r="I4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9">

--- a/data_config/BattleProcessWaveNode.xlsx
+++ b/data_config/BattleProcessWaveNode.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="16620" windowHeight="10845"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -132,7 +132,7 @@
     <t>纯本地战斗测试：第 1 波 怪物1</t>
   </si>
   <si>
-    <t>纯本地战斗测试：第 1 波 怪物2</t>
+    <t>纯本地战斗测试：第 1 波 头目1</t>
   </si>
   <si>
     <t>纯本地战斗测试：第 2 波 怪物1</t>
@@ -1135,10 +1135,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1267,16 +1267,16 @@
         <v>200</v>
       </c>
       <c r="F4" s="1">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="G4" s="2">
         <v>1</v>
       </c>
       <c r="H4">
-        <v>1000210</v>
+        <v>1000201</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1293,116 +1293,116 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>40000000</v>
+        <v>5000</v>
       </c>
       <c r="F5" s="1">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="G5" s="2">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1000210</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3">
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="3:3">
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="3:3">
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
         <v>0</v>
       </c>
-      <c r="H5">
+      <c r="B9">
+        <v>1002</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>200</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G9" s="2">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>1000201</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>1003</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>200</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G10" s="2">
+        <v>2</v>
+      </c>
+      <c r="H10">
         <v>1000202</v>
       </c>
-      <c r="I5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
+      <c r="I10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
         <v>0</v>
       </c>
-      <c r="B6">
-        <v>1002</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6">
-        <v>40000000</v>
-      </c>
-      <c r="F6" s="1">
-        <v>2000</v>
-      </c>
-      <c r="G6" s="2">
-        <v>5</v>
-      </c>
-      <c r="H6">
-        <v>1000201</v>
-      </c>
-      <c r="I6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="s">
+      <c r="B11">
+        <v>1004</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>200</v>
+      </c>
+      <c r="F11" s="1">
         <v>0</v>
       </c>
-      <c r="B7">
-        <v>1003</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="E7">
-        <v>40000000</v>
-      </c>
-      <c r="F7" s="1">
-        <v>3000</v>
-      </c>
-      <c r="G7" s="2">
-        <v>5</v>
-      </c>
-      <c r="H7">
-        <v>1000202</v>
-      </c>
-      <c r="I7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8">
-        <v>1004</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8">
-        <v>3</v>
-      </c>
-      <c r="E8">
-        <v>40000000</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
-      <c r="G8" s="2">
+      <c r="G11" s="2">
         <v>1</v>
       </c>
-      <c r="H8">
+      <c r="H11">
         <v>1000210</v>
       </c>
-      <c r="I8">
+      <c r="I11">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="3:3">
-      <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="3:3">
-      <c r="C10" s="3"/>
-    </row>
-    <row r="11" spans="3:3">
-      <c r="C11" s="3"/>
     </row>
     <row r="12" spans="3:3">
       <c r="C12" s="3"/>
@@ -1425,14 +1425,23 @@
     <row r="18" spans="3:3">
       <c r="C18" s="3"/>
     </row>
-    <row r="23" spans="3:3">
-      <c r="C23" s="3"/>
-    </row>
-    <row r="24" spans="3:3">
-      <c r="C24" s="3"/>
+    <row r="19" spans="3:3">
+      <c r="C19" s="3"/>
+    </row>
+    <row r="20" spans="3:3">
+      <c r="C20" s="3"/>
+    </row>
+    <row r="21" spans="3:3">
+      <c r="C21" s="3"/>
     </row>
     <row r="26" spans="3:3">
       <c r="C26" s="3"/>
+    </row>
+    <row r="27" spans="3:3">
+      <c r="C27" s="3"/>
+    </row>
+    <row r="29" spans="3:3">
+      <c r="C29" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data_config/BattleProcessWaveNode.xlsx
+++ b/data_config/BattleProcessWaveNode.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16620" windowHeight="10845"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,30 @@
     <author>94067</author>
   </authors>
   <commentList>
-    <comment ref="J3" authorId="0">
+    <comment ref="E3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>94067:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+0 正常波次
+1 结束波次</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -61,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="29">
   <si>
     <t>#</t>
   </si>
@@ -75,6 +98,9 @@
     <t>index</t>
   </si>
   <si>
+    <t>isEndNode</t>
+  </si>
+  <si>
     <t>delayTime</t>
   </si>
   <si>
@@ -111,6 +137,9 @@
     <t>波次索引</t>
   </si>
   <si>
+    <t>是否是本波结束节点（如果是怪物死亡胜利的条件，那么这波怪物只有一个，怪物死亡就胜利）</t>
+  </si>
+  <si>
     <t>初始延迟（*1000）</t>
   </si>
   <si>
@@ -138,7 +167,7 @@
     <t>纯本地战斗测试：第 2 波 怪物1</t>
   </si>
   <si>
-    <t>纯本地战斗测试：第 2 波 怪物2</t>
+    <t>纯本地战斗测试：第 2 波 头目2</t>
   </si>
   <si>
     <t>纯本地战斗测试：第 3 波 boss</t>
@@ -768,7 +797,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -782,6 +811,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1135,9 +1167,9 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
@@ -1145,16 +1177,16 @@
   <cols>
     <col min="2" max="2" width="15.375" customWidth="1"/>
     <col min="3" max="3" width="31.375" customWidth="1"/>
-    <col min="4" max="4" width="20.25" customWidth="1"/>
-    <col min="5" max="5" width="17.125" customWidth="1"/>
-    <col min="6" max="6" width="23" style="1" customWidth="1"/>
-    <col min="7" max="7" width="23" style="2" customWidth="1"/>
-    <col min="8" max="9" width="18.375" customWidth="1"/>
-    <col min="10" max="10" width="13.875" customWidth="1"/>
-    <col min="11" max="11" width="11.5" customWidth="1"/>
+    <col min="4" max="5" width="20.25" customWidth="1"/>
+    <col min="6" max="6" width="17.125" customWidth="1"/>
+    <col min="7" max="7" width="23" style="1" customWidth="1"/>
+    <col min="8" max="8" width="23" style="2" customWidth="1"/>
+    <col min="9" max="10" width="18.375" customWidth="1"/>
+    <col min="11" max="11" width="13.875" customWidth="1"/>
+    <col min="12" max="12" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1170,13 +1202,13 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I1" t="s">
@@ -1185,72 +1217,81 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
       <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="I2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" ht="93" customHeight="1" spans="1:10">
+        <v>11</v>
+      </c>
+      <c r="K2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" ht="93" customHeight="1" spans="1:11">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="E3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="F3" t="s">
         <v>18</v>
       </c>
-      <c r="H3" t="s">
+      <c r="G3" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="H3" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="I3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="K3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1258,28 +1299,28 @@
         <v>1000</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>200</v>
       </c>
-      <c r="F4" s="1">
-        <v>500</v>
-      </c>
-      <c r="G4" s="2">
+      <c r="G4" s="1">
+        <v>1000</v>
+      </c>
+      <c r="H4" s="2">
         <v>1</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>1000201</v>
       </c>
-      <c r="I4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="J4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1287,24 +1328,27 @@
         <v>1001</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5">
-        <v>5000</v>
-      </c>
-      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5">
         <v>1000</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="1">
+        <v>1000</v>
+      </c>
+      <c r="H5" s="2">
         <v>1</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>1000210</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>1</v>
       </c>
     </row>
@@ -1317,7 +1361,7 @@
     <row r="8" spans="3:3">
       <c r="C8" s="3"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1325,28 +1369,28 @@
         <v>1002</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9">
         <v>2</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>200</v>
       </c>
-      <c r="F9" s="1">
+      <c r="G9" s="1">
         <v>1000</v>
       </c>
-      <c r="G9" s="2">
-        <v>2</v>
-      </c>
-      <c r="H9">
+      <c r="H9" s="2">
+        <v>1</v>
+      </c>
+      <c r="I9">
         <v>1000201</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1354,58 +1398,64 @@
         <v>1003</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10">
         <v>2</v>
       </c>
       <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
         <v>200</v>
       </c>
-      <c r="F10" s="1">
+      <c r="G10" s="1">
         <v>1000</v>
       </c>
-      <c r="G10" s="2">
-        <v>2</v>
-      </c>
-      <c r="H10">
-        <v>1000202</v>
+      <c r="H10" s="2">
+        <v>1</v>
       </c>
       <c r="I10">
+        <v>1000210</v>
+      </c>
+      <c r="J10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
-      <c r="A11" t="s">
+    <row r="11" spans="3:3">
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
         <v>0</v>
       </c>
-      <c r="B11">
+      <c r="B12">
         <v>1004</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11">
+      <c r="C12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12">
         <v>3</v>
       </c>
-      <c r="E11">
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
         <v>200</v>
       </c>
-      <c r="F11" s="1">
+      <c r="G12" s="1">
         <v>0</v>
       </c>
-      <c r="G11" s="2">
+      <c r="H12" s="2">
         <v>1</v>
       </c>
-      <c r="H11">
+      <c r="I12">
         <v>1000210</v>
       </c>
-      <c r="I11">
+      <c r="J12">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="3:3">
-      <c r="C12" s="3"/>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" s="3"/>
@@ -1434,14 +1484,17 @@
     <row r="21" spans="3:3">
       <c r="C21" s="3"/>
     </row>
-    <row r="26" spans="3:3">
-      <c r="C26" s="3"/>
+    <row r="22" spans="3:3">
+      <c r="C22" s="3"/>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" s="3"/>
     </row>
-    <row r="29" spans="3:3">
-      <c r="C29" s="3"/>
+    <row r="28" spans="3:3">
+      <c r="C28" s="3"/>
+    </row>
+    <row r="30" spans="3:3">
+      <c r="C30" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data_config/BattleProcessWaveNode.xlsx
+++ b/data_config/BattleProcessWaveNode.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="14100" windowHeight="12015"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -797,7 +797,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -811,9 +811,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1169,8 +1166,8 @@
   <sheetPr/>
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1269,7 +1266,7 @@
       <c r="D3" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>17</v>
       </c>
       <c r="F3" t="s">
@@ -1311,13 +1308,13 @@
         <v>1000</v>
       </c>
       <c r="H4" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I4">
         <v>1000201</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1337,7 +1334,7 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1000</v>
+        <v>9999999</v>
       </c>
       <c r="G5" s="1">
         <v>1000</v>

--- a/data_config/BattleProcessWaveNode.xlsx
+++ b/data_config/BattleProcessWaveNode.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14100" windowHeight="12015"/>
+    <workbookView windowWidth="14970" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1166,8 +1166,8 @@
   <sheetPr/>
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1308,13 +1308,13 @@
         <v>1000</v>
       </c>
       <c r="H4" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I4">
-        <v>1000201</v>
+        <v>1000202</v>
       </c>
       <c r="J4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:10">

--- a/data_config/BattleProcessWaveNode.xlsx
+++ b/data_config/BattleProcessWaveNode.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14970" windowHeight="9420"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1166,8 +1166,8 @@
   <sheetPr/>
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1311,10 +1311,10 @@
         <v>3</v>
       </c>
       <c r="I4">
-        <v>1000202</v>
+        <v>1000201</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:10">

--- a/data_config/BattleProcessWaveNode.xlsx
+++ b/data_config/BattleProcessWaveNode.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="13635" windowHeight="11865"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1166,8 +1166,8 @@
   <sheetPr/>
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1308,13 +1308,13 @@
         <v>1000</v>
       </c>
       <c r="H4" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I4">
         <v>1000201</v>
       </c>
       <c r="J4">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:10">

--- a/data_config/BattleProcessWaveNode.xlsx
+++ b/data_config/BattleProcessWaveNode.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13635" windowHeight="11865"/>
+    <workbookView windowWidth="16125" windowHeight="10395"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1166,8 +1166,8 @@
   <sheetPr/>
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1302,7 +1302,7 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>200</v>
+        <v>999999</v>
       </c>
       <c r="G4" s="1">
         <v>1000</v>

--- a/data_config/BattleProcessWaveNode.xlsx
+++ b/data_config/BattleProcessWaveNode.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16125" windowHeight="10395"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1167,7 +1167,7 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1302,13 +1302,13 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>999999</v>
+        <v>200</v>
       </c>
       <c r="G4" s="1">
         <v>1000</v>
       </c>
       <c r="H4" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I4">
         <v>1000201</v>
@@ -1334,19 +1334,19 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>9999999</v>
+        <v>5000</v>
       </c>
       <c r="G5" s="1">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="H5" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I5">
-        <v>1000210</v>
+        <v>1200102</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="3:3">
@@ -1413,7 +1413,7 @@
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1000210</v>
+        <v>1200102</v>
       </c>
       <c r="J10">
         <v>1</v>

--- a/data_config/BattleProcessWaveNode.xlsx
+++ b/data_config/BattleProcessWaveNode.xlsx
@@ -336,12 +336,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1167,7 +1167,7 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1308,13 +1308,13 @@
         <v>1000</v>
       </c>
       <c r="H4" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>1000201</v>
+        <v>1000202</v>
       </c>
       <c r="J4">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1334,7 +1334,7 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>5000</v>
+        <v>199999000</v>
       </c>
       <c r="G5" s="1">
         <v>2000</v>
@@ -1343,7 +1343,7 @@
         <v>3</v>
       </c>
       <c r="I5">
-        <v>1200102</v>
+        <v>1000202</v>
       </c>
       <c r="J5">
         <v>4</v>
@@ -1413,7 +1413,7 @@
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1200102</v>
+        <v>1000202</v>
       </c>
       <c r="J10">
         <v>1</v>

--- a/data_config/BattleProcessWaveNode.xlsx
+++ b/data_config/BattleProcessWaveNode.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="19350" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -336,12 +336,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1166,8 +1166,8 @@
   <sheetPr/>
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1311,7 +1311,7 @@
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1000202</v>
+        <v>1300101</v>
       </c>
       <c r="J4">
         <v>1</v>

--- a/data_config/BattleProcessWaveNode.xlsx
+++ b/data_config/BattleProcessWaveNode.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19350" windowHeight="12255"/>
+    <workbookView windowWidth="14145" windowHeight="8685"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1166,8 +1166,8 @@
   <sheetPr/>
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1311,7 +1311,7 @@
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1300101</v>
+        <v>1300102</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -1507,7 +1507,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1524,7 +1524,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/data_config/BattleProcessWaveNode.xlsx
+++ b/data_config/BattleProcessWaveNode.xlsx
@@ -1167,7 +1167,7 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1308,13 +1308,13 @@
         <v>1000</v>
       </c>
       <c r="H4" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I4">
-        <v>1300102</v>
+        <v>1300101</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:10">

--- a/data_config/BattleProcessWaveNode.xlsx
+++ b/data_config/BattleProcessWaveNode.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14145" windowHeight="8685"/>
+    <workbookView windowWidth="15435" windowHeight="8685"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1166,8 +1166,8 @@
   <sheetPr/>
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/data_config/BattleProcessWaveNode.xlsx
+++ b/data_config/BattleProcessWaveNode.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15435" windowHeight="8685"/>
+    <workbookView windowWidth="17220" windowHeight="10890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1167,7 +1167,7 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1308,13 +1308,13 @@
         <v>1000</v>
       </c>
       <c r="H4" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>1300101</v>
+        <v>1100001</v>
       </c>
       <c r="J4">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:10">

--- a/data_config/BattleProcessWaveNode.xlsx
+++ b/data_config/BattleProcessWaveNode.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17220" windowHeight="10890"/>
+    <workbookView windowWidth="16365" windowHeight="10890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1167,7 +1167,7 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1314,7 +1314,7 @@
         <v>1100001</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:10">

--- a/data_config/BattleProcessWaveNode.xlsx
+++ b/data_config/BattleProcessWaveNode.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16365" windowHeight="10890"/>
+    <workbookView windowWidth="15735" windowHeight="10890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -336,12 +336,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1166,8 +1166,8 @@
   <sheetPr/>
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1314,7 +1314,7 @@
         <v>1100001</v>
       </c>
       <c r="J4">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:10">

--- a/data_config/BattleProcessWaveNode.xlsx
+++ b/data_config/BattleProcessWaveNode.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15735" windowHeight="10890"/>
+    <workbookView windowWidth="18105" windowHeight="10890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1167,7 +1167,7 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1311,7 +1311,7 @@
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1100001</v>
+        <v>1000101</v>
       </c>
       <c r="J4">
         <v>1</v>

--- a/data_config/BattleProcessWaveNode.xlsx
+++ b/data_config/BattleProcessWaveNode.xlsx
@@ -1166,8 +1166,8 @@
   <sheetPr/>
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1314,7 +1314,7 @@
         <v>1000101</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:10">

--- a/data_config/BattleProcessWaveNode.xlsx
+++ b/data_config/BattleProcessWaveNode.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18105" windowHeight="10890"/>
+    <workbookView windowWidth="15750" windowHeight="10890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -336,12 +336,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1166,8 +1166,8 @@
   <sheetPr/>
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1314,7 +1314,7 @@
         <v>1000101</v>
       </c>
       <c r="J4">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:10">

--- a/data_config/BattleProcessWaveNode.xlsx
+++ b/data_config/BattleProcessWaveNode.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15750" windowHeight="10890"/>
+    <workbookView windowWidth="16005" windowHeight="10890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1167,7 +1167,7 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1314,7 +1314,7 @@
         <v>1000101</v>
       </c>
       <c r="J4">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:10">

--- a/data_config/BattleProcessWaveNode.xlsx
+++ b/data_config/BattleProcessWaveNode.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16005" windowHeight="10890"/>
+    <workbookView windowWidth="16530" windowHeight="10890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1167,7 +1167,7 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1314,7 +1314,7 @@
         <v>1000101</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:10">

--- a/data_config/BattleProcessWaveNode.xlsx
+++ b/data_config/BattleProcessWaveNode.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16530" windowHeight="10890"/>
+    <workbookView windowWidth="16455" windowHeight="11430"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="31">
   <si>
     <t>#</t>
   </si>
@@ -170,7 +170,13 @@
     <t>纯本地战斗测试：第 2 波 头目2</t>
   </si>
   <si>
-    <t>纯本地战斗测试：第 3 波 boss</t>
+    <t>纯本地战斗测试：第 4 波</t>
+  </si>
+  <si>
+    <t>纯本地战斗测试：第 5 波</t>
+  </si>
+  <si>
+    <t>纯本地战斗测试：第 6 波 boss</t>
   </si>
 </sst>
 </file>
@@ -1166,8 +1172,8 @@
   <sheetPr/>
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1314,7 +1320,7 @@
         <v>1000101</v>
       </c>
       <c r="J4">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1334,19 +1340,19 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>199999000</v>
+        <v>200</v>
       </c>
       <c r="G5" s="1">
         <v>2000</v>
       </c>
       <c r="H5" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>1000202</v>
+        <v>1000101</v>
       </c>
       <c r="J5">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="3:3">
@@ -1381,7 +1387,7 @@
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1000201</v>
+        <v>1000101</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -1413,7 +1419,7 @@
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1000202</v>
+        <v>1000101</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -1448,7 +1454,7 @@
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1000210</v>
+        <v>1000101</v>
       </c>
       <c r="J12">
         <v>1</v>
@@ -1460,8 +1466,37 @@
     <row r="14" spans="3:3">
       <c r="C14" s="3"/>
     </row>
-    <row r="15" spans="3:3">
-      <c r="C15" s="3"/>
+    <row r="15" customFormat="1" spans="1:10">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>1005</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>200</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1000101</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="3:3">
       <c r="C16" s="3"/>
@@ -1469,8 +1504,37 @@
     <row r="17" spans="3:3">
       <c r="C17" s="3"/>
     </row>
-    <row r="18" spans="3:3">
-      <c r="C18" s="3"/>
+    <row r="18" customFormat="1" spans="1:10">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>1006</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>200</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="2">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1000101</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" s="3"/>

--- a/data_config/BattleProcessWaveNode.xlsx
+++ b/data_config/BattleProcessWaveNode.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16455" windowHeight="11430"/>
+    <workbookView windowWidth="16065" windowHeight="11430"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1172,8 +1172,8 @@
   <sheetPr/>
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1320,7 +1320,7 @@
         <v>1000101</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1352,7 +1352,7 @@
         <v>1000101</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="3:3">

--- a/data_config/BattleProcessWaveNode.xlsx
+++ b/data_config/BattleProcessWaveNode.xlsx
@@ -1172,7 +1172,7 @@
   <sheetPr/>
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
@@ -1320,7 +1320,7 @@
         <v>1000101</v>
       </c>
       <c r="J4">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1352,7 +1352,7 @@
         <v>1000101</v>
       </c>
       <c r="J5">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="3:3">

--- a/data_config/BattleProcessWaveNode.xlsx
+++ b/data_config/BattleProcessWaveNode.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16065" windowHeight="11430"/>
+    <workbookView windowWidth="17190" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1173,7 +1173,7 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/data_config/BattleProcessWaveNode.xlsx
+++ b/data_config/BattleProcessWaveNode.xlsx
@@ -4,27 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17190" windowHeight="11700"/>
+    <workbookView windowWidth="24900" windowHeight="15780"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -34,7 +21,7 @@
     <author>94067</author>
   </authors>
   <commentList>
-    <comment ref="E3" authorId="0">
+    <comment ref="F3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -57,7 +44,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K3" authorId="0">
+    <comment ref="L3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -84,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="53">
   <si>
     <t>#</t>
   </si>
@@ -95,6 +82,9 @@
     <t>describe</t>
   </si>
   <si>
+    <t>describe2</t>
+  </si>
+  <si>
     <t>index</t>
   </si>
   <si>
@@ -110,7 +100,7 @@
     <t>triggerCount</t>
   </si>
   <si>
-    <t>entityConfigId</t>
+    <t>entityInstanceId</t>
   </si>
   <si>
     <t>entityCount</t>
@@ -134,6 +124,9 @@
     <t>介绍</t>
   </si>
   <si>
+    <t>介绍2</t>
+  </si>
+  <si>
     <t>波次索引</t>
   </si>
   <si>
@@ -149,7 +142,7 @@
     <t>触发次数</t>
   </si>
   <si>
-    <t>实体id</t>
+    <t>实体实例id</t>
   </si>
   <si>
     <t>实体个数</t>
@@ -158,13 +151,73 @@
     <t>生成位置类型</t>
   </si>
   <si>
-    <t>纯本地战斗测试：第 1 波 怪物1</t>
-  </si>
-  <si>
-    <t>纯本地战斗测试：第 1 波 头目1</t>
-  </si>
-  <si>
-    <t>纯本地战斗测试：第 2 波 怪物1</t>
+    <t>第 1 波 纯本地战斗</t>
+  </si>
+  <si>
+    <t>怪物1</t>
+  </si>
+  <si>
+    <t>第 2 波 纯本地战斗</t>
+  </si>
+  <si>
+    <t>第 3 波 纯本地战斗</t>
+  </si>
+  <si>
+    <t>第 4 波 纯本地战斗</t>
+  </si>
+  <si>
+    <t>第 5 波 纯本地战斗</t>
+  </si>
+  <si>
+    <t>第 6 波 纯本地战斗</t>
+  </si>
+  <si>
+    <t>第 7 波 纯本地战斗</t>
+  </si>
+  <si>
+    <t>第 8 波 纯本地战斗</t>
+  </si>
+  <si>
+    <t>第 9 波 纯本地战斗</t>
+  </si>
+  <si>
+    <t>第 10 波 纯本地战斗</t>
+  </si>
+  <si>
+    <t>第 11 波 纯本地战斗</t>
+  </si>
+  <si>
+    <t>第 12 波 纯本地战斗</t>
+  </si>
+  <si>
+    <t>第 13 波 纯本地战斗</t>
+  </si>
+  <si>
+    <t>第 14 波 纯本地战斗</t>
+  </si>
+  <si>
+    <t>第 15 波 纯本地战斗</t>
+  </si>
+  <si>
+    <t>第 16 波 纯本地战斗</t>
+  </si>
+  <si>
+    <t>第 17 波 纯本地战斗</t>
+  </si>
+  <si>
+    <t>第 18 波 纯本地战斗</t>
+  </si>
+  <si>
+    <t>第 19 波 纯本地战斗</t>
+  </si>
+  <si>
+    <t>第 20 波 纯本地战斗</t>
+  </si>
+  <si>
+    <t>怪物2</t>
+  </si>
+  <si>
+    <t>怪物 boss</t>
   </si>
   <si>
     <t>纯本地战斗测试：第 2 波 头目2</t>
@@ -182,7 +235,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -342,12 +395,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1170,26 +1223,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:L69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
     <col min="2" max="2" width="15.375" customWidth="1"/>
-    <col min="3" max="3" width="31.375" customWidth="1"/>
-    <col min="4" max="5" width="20.25" customWidth="1"/>
-    <col min="6" max="6" width="17.125" customWidth="1"/>
-    <col min="7" max="7" width="23" style="1" customWidth="1"/>
-    <col min="8" max="8" width="23" style="2" customWidth="1"/>
-    <col min="9" max="10" width="18.375" customWidth="1"/>
-    <col min="11" max="11" width="13.875" customWidth="1"/>
-    <col min="12" max="12" width="11.5" customWidth="1"/>
+    <col min="3" max="4" width="31.375" customWidth="1"/>
+    <col min="5" max="6" width="20.25" customWidth="1"/>
+    <col min="7" max="7" width="17.125" customWidth="1"/>
+    <col min="8" max="8" width="23" style="1" customWidth="1"/>
+    <col min="9" max="9" width="23" style="2" customWidth="1"/>
+    <col min="10" max="11" width="18.375" customWidth="1"/>
+    <col min="12" max="12" width="13.875" customWidth="1"/>
+    <col min="13" max="13" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1208,13 +1261,13 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="J1" t="s">
@@ -1223,339 +1276,1551 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" ht="93" customHeight="1" spans="1:12">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>1001</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>200</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1001001</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>1002</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>200</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1001002</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>1003</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>200</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1001003</v>
+      </c>
+      <c r="K6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>1004</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>200</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1001004</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>1005</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="G8">
+        <v>200</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1001005</v>
+      </c>
+      <c r="K8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>1006</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9">
+        <v>6</v>
+      </c>
+      <c r="G9">
+        <v>200</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1001006</v>
+      </c>
+      <c r="K9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>1007</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10">
+        <v>7</v>
+      </c>
+      <c r="G10">
+        <v>200</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1001007</v>
+      </c>
+      <c r="K10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>1008</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11">
+        <v>8</v>
+      </c>
+      <c r="G11">
+        <v>200</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I11" s="2">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1001008</v>
+      </c>
+      <c r="K11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>1009</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12">
+        <v>9</v>
+      </c>
+      <c r="G12">
+        <v>200</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I12" s="2">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>1001009</v>
+      </c>
+      <c r="K12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>1010</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13">
+        <v>10</v>
+      </c>
+      <c r="G13">
+        <v>200</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I13" s="2">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>1001010</v>
+      </c>
+      <c r="K13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>1011</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="G14">
+        <v>200</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I14" s="2">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>1001011</v>
+      </c>
+      <c r="K14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>1012</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G15">
+        <v>200</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I15" s="2">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>1001012</v>
+      </c>
+      <c r="K15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>1013</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16">
+        <v>13</v>
+      </c>
+      <c r="G16">
+        <v>200</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I16" s="2">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>1001013</v>
+      </c>
+      <c r="K16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>1014</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17">
+        <v>14</v>
+      </c>
+      <c r="G17">
+        <v>200</v>
+      </c>
+      <c r="H17" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I17" s="2">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>1001014</v>
+      </c>
+      <c r="K17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>1015</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18">
+        <v>15</v>
+      </c>
+      <c r="G18">
+        <v>200</v>
+      </c>
+      <c r="H18" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I18" s="2">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>1001015</v>
+      </c>
+      <c r="K18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>1016</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19">
+        <v>16</v>
+      </c>
+      <c r="G19">
+        <v>200</v>
+      </c>
+      <c r="H19" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I19" s="2">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>1001016</v>
+      </c>
+      <c r="K19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>1017</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20">
+        <v>17</v>
+      </c>
+      <c r="G20">
+        <v>200</v>
+      </c>
+      <c r="H20" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I20" s="2">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>1001017</v>
+      </c>
+      <c r="K20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>1018</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21">
+        <v>18</v>
+      </c>
+      <c r="G21">
+        <v>200</v>
+      </c>
+      <c r="H21" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I21" s="2">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>1001018</v>
+      </c>
+      <c r="K21">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" customFormat="1" spans="1:11">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>1019</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22">
+        <v>19</v>
+      </c>
+      <c r="F22"/>
+      <c r="G22">
+        <v>200</v>
+      </c>
+      <c r="H22" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I22" s="2">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>1001019</v>
+      </c>
+      <c r="K22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" customFormat="1" spans="1:11">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>1020</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23">
+        <v>20</v>
+      </c>
+      <c r="F23"/>
+      <c r="G23">
+        <v>200</v>
+      </c>
+      <c r="H23" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I23" s="2">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>1001020</v>
+      </c>
+      <c r="K23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4">
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="3:4">
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26" customFormat="1" spans="1:11">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>1203</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26"/>
+      <c r="G26">
+        <v>500</v>
+      </c>
+      <c r="H26" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I26" s="2">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>1001203</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" customFormat="1" spans="1:11">
+      <c r="A27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27">
+        <v>1204</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E27">
+        <v>4</v>
+      </c>
+      <c r="F27"/>
+      <c r="G27">
+        <v>500</v>
+      </c>
+      <c r="H27" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I27" s="2">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>1001204</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" customFormat="1" spans="1:11">
+      <c r="A28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>1205</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E28">
+        <v>5</v>
+      </c>
+      <c r="F28"/>
+      <c r="G28">
+        <v>500</v>
+      </c>
+      <c r="H28" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I28" s="2">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>1001205</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" customFormat="1" spans="1:11">
+      <c r="A29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <v>1206</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29">
+        <v>6</v>
+      </c>
+      <c r="F29"/>
+      <c r="G29">
+        <v>500</v>
+      </c>
+      <c r="H29" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I29" s="2">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>1001206</v>
+      </c>
+      <c r="K29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" customFormat="1" spans="1:11">
+      <c r="A30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30">
+        <v>1207</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E30">
+        <v>7</v>
+      </c>
+      <c r="F30"/>
+      <c r="G30">
+        <v>500</v>
+      </c>
+      <c r="H30" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I30" s="2">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>1001207</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" customFormat="1" spans="1:11">
+      <c r="A31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31">
+        <v>1208</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E31">
+        <v>8</v>
+      </c>
+      <c r="F31"/>
+      <c r="G31">
+        <v>500</v>
+      </c>
+      <c r="H31" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I31" s="2">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>1001208</v>
+      </c>
+      <c r="K31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" customFormat="1" spans="1:11">
+      <c r="A32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32">
+        <v>1209</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E32">
+        <v>9</v>
+      </c>
+      <c r="F32"/>
+      <c r="G32">
+        <v>500</v>
+      </c>
+      <c r="H32" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I32" s="2">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>1001209</v>
+      </c>
+      <c r="K32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" customFormat="1" spans="1:11">
+      <c r="A33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33">
+        <v>1210</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E33">
+        <v>10</v>
+      </c>
+      <c r="F33"/>
+      <c r="G33">
+        <v>500</v>
+      </c>
+      <c r="H33" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I33" s="2">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>1001210</v>
+      </c>
+      <c r="K33">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" customFormat="1" spans="1:11">
+      <c r="A34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34">
+        <v>1211</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E34">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" ht="93" customHeight="1" spans="1:11">
-      <c r="A3" t="s">
+      <c r="F34"/>
+      <c r="G34">
+        <v>500</v>
+      </c>
+      <c r="H34" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I34" s="2">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>1001211</v>
+      </c>
+      <c r="K34">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" customFormat="1" spans="1:11">
+      <c r="A35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35">
+        <v>1212</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E35">
+        <v>12</v>
+      </c>
+      <c r="F35"/>
+      <c r="G35">
+        <v>500</v>
+      </c>
+      <c r="H35" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I35" s="2">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>1001212</v>
+      </c>
+      <c r="K35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" customFormat="1" spans="1:11">
+      <c r="A36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36">
+        <v>1213</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E36">
         <v>13</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="F36"/>
+      <c r="G36">
+        <v>500</v>
+      </c>
+      <c r="H36" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I36" s="2">
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <v>1001213</v>
+      </c>
+      <c r="K36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" customFormat="1" spans="1:11">
+      <c r="A37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37">
+        <v>1214</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E37">
         <v>14</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="F37"/>
+      <c r="G37">
+        <v>500</v>
+      </c>
+      <c r="H37" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I37" s="2">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>1001214</v>
+      </c>
+      <c r="K37">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" customFormat="1" spans="1:11">
+      <c r="A38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38">
+        <v>1215</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E38">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F38"/>
+      <c r="G38">
+        <v>500</v>
+      </c>
+      <c r="H38" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I38" s="2">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>1001215</v>
+      </c>
+      <c r="K38">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" customFormat="1" spans="1:11">
+      <c r="A39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39">
+        <v>1216</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E39">
         <v>16</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F39"/>
+      <c r="G39">
+        <v>500</v>
+      </c>
+      <c r="H39" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I39" s="2">
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <v>1001216</v>
+      </c>
+      <c r="K39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" customFormat="1" spans="1:11">
+      <c r="A40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40">
+        <v>1217</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E40">
         <v>17</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F40"/>
+      <c r="G40">
+        <v>500</v>
+      </c>
+      <c r="H40" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I40" s="2">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>1001217</v>
+      </c>
+      <c r="K40">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" customFormat="1" spans="1:11">
+      <c r="A41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41">
+        <v>1218</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E41">
         <v>18</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="F41"/>
+      <c r="G41">
+        <v>500</v>
+      </c>
+      <c r="H41" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I41" s="2">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>1001218</v>
+      </c>
+      <c r="K41">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" customFormat="1" spans="1:11">
+      <c r="A42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42">
+        <v>1219</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E42">
         <v>19</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="G42">
+        <v>500</v>
+      </c>
+      <c r="H42" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I42" s="2">
+        <v>1</v>
+      </c>
+      <c r="J42">
+        <v>1001219</v>
+      </c>
+      <c r="K42">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" customFormat="1" spans="1:11">
+      <c r="A43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43">
+        <v>1220</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E43">
         <v>20</v>
       </c>
-      <c r="I3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>1000</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="F4">
+      <c r="G43">
+        <v>500</v>
+      </c>
+      <c r="H43" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I43" s="2">
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <v>1001220</v>
+      </c>
+      <c r="K43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" customFormat="1" spans="3:9">
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="2"/>
+    </row>
+    <row r="45" customFormat="1" spans="1:11">
+      <c r="A45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45">
+        <v>1320</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E45">
+        <v>20</v>
+      </c>
+      <c r="G45">
+        <v>150</v>
+      </c>
+      <c r="H45" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I45" s="2">
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <v>1001320</v>
+      </c>
+      <c r="K45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" customFormat="1" spans="3:9">
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="2"/>
+    </row>
+    <row r="47" customFormat="1" spans="3:9">
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="2"/>
+    </row>
+    <row r="48" customFormat="1" spans="3:9">
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="2"/>
+    </row>
+    <row r="49" spans="2:11">
+      <c r="B49">
+        <v>1003</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D49" s="3"/>
+      <c r="E49">
+        <v>2</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49">
         <v>200</v>
       </c>
-      <c r="G4" s="1">
-        <v>1000</v>
-      </c>
-      <c r="H4" s="2">
-        <v>1</v>
-      </c>
-      <c r="I4">
+      <c r="H49" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I49" s="2">
+        <v>1</v>
+      </c>
+      <c r="J49">
         <v>1000101</v>
       </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5">
-        <v>1001</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
+      <c r="K49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="3:4">
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+    </row>
+    <row r="51" spans="2:11">
+      <c r="B51">
+        <v>1004</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D51" s="3"/>
+      <c r="E51">
+        <v>3</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51">
         <v>200</v>
       </c>
-      <c r="G5" s="1">
-        <v>2000</v>
-      </c>
-      <c r="H5" s="2">
-        <v>1</v>
-      </c>
-      <c r="I5">
+      <c r="H51" s="1">
+        <v>0</v>
+      </c>
+      <c r="I51" s="2">
+        <v>1</v>
+      </c>
+      <c r="J51">
         <v>1000101</v>
       </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="3:3">
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="3:3">
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="3:3">
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9">
-        <v>1002</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9">
-        <v>2</v>
-      </c>
-      <c r="F9">
+      <c r="K51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="3:4">
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+    </row>
+    <row r="53" spans="3:4">
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+    </row>
+    <row r="54" customFormat="1" spans="2:11">
+      <c r="B54">
+        <v>1005</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D54" s="3"/>
+      <c r="E54">
+        <v>3</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54">
         <v>200</v>
       </c>
-      <c r="G9" s="1">
-        <v>1000</v>
-      </c>
-      <c r="H9" s="2">
-        <v>1</v>
-      </c>
-      <c r="I9">
+      <c r="H54" s="1">
+        <v>0</v>
+      </c>
+      <c r="I54" s="2">
+        <v>1</v>
+      </c>
+      <c r="J54">
         <v>1000101</v>
       </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10">
-        <v>1003</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10">
-        <v>2</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
+      <c r="K54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="3:4">
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+    </row>
+    <row r="56" spans="3:4">
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+    </row>
+    <row r="57" customFormat="1" spans="2:11">
+      <c r="B57">
+        <v>1006</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D57" s="3"/>
+      <c r="E57">
+        <v>3</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57">
         <v>200</v>
       </c>
-      <c r="G10" s="1">
-        <v>1000</v>
-      </c>
-      <c r="H10" s="2">
-        <v>1</v>
-      </c>
-      <c r="I10">
+      <c r="H57" s="1">
+        <v>0</v>
+      </c>
+      <c r="I57" s="2">
+        <v>1</v>
+      </c>
+      <c r="J57">
         <v>1000101</v>
       </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="3:3">
-      <c r="C11" s="3"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12">
-        <v>1004</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12">
-        <v>3</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>200</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0</v>
-      </c>
-      <c r="H12" s="2">
-        <v>1</v>
-      </c>
-      <c r="I12">
-        <v>1000101</v>
-      </c>
-      <c r="J12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="3:3">
-      <c r="C13" s="3"/>
-    </row>
-    <row r="14" spans="3:3">
-      <c r="C14" s="3"/>
-    </row>
-    <row r="15" customFormat="1" spans="1:10">
-      <c r="A15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15">
-        <v>1005</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15">
-        <v>3</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>200</v>
-      </c>
-      <c r="G15" s="1">
-        <v>0</v>
-      </c>
-      <c r="H15" s="2">
-        <v>1</v>
-      </c>
-      <c r="I15">
-        <v>1000101</v>
-      </c>
-      <c r="J15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="3:3">
-      <c r="C16" s="3"/>
-    </row>
-    <row r="17" spans="3:3">
-      <c r="C17" s="3"/>
-    </row>
-    <row r="18" customFormat="1" spans="1:10">
-      <c r="A18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18">
-        <v>1006</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18">
-        <v>3</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>200</v>
-      </c>
-      <c r="G18" s="1">
-        <v>0</v>
-      </c>
-      <c r="H18" s="2">
-        <v>1</v>
-      </c>
-      <c r="I18">
-        <v>1000101</v>
-      </c>
-      <c r="J18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="3:3">
-      <c r="C19" s="3"/>
-    </row>
-    <row r="20" spans="3:3">
-      <c r="C20" s="3"/>
-    </row>
-    <row r="21" spans="3:3">
-      <c r="C21" s="3"/>
-    </row>
-    <row r="22" spans="3:3">
-      <c r="C22" s="3"/>
-    </row>
-    <row r="27" spans="3:3">
-      <c r="C27" s="3"/>
-    </row>
-    <row r="28" spans="3:3">
-      <c r="C28" s="3"/>
-    </row>
-    <row r="30" spans="3:3">
-      <c r="C30" s="3"/>
+      <c r="K57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="3:4">
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+    </row>
+    <row r="59" spans="3:4">
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+    </row>
+    <row r="60" spans="3:4">
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+    </row>
+    <row r="61" spans="3:4">
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+    </row>
+    <row r="66" spans="3:4">
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+    </row>
+    <row r="67" spans="3:4">
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+    </row>
+    <row r="69" spans="3:4">
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1574,7 +2839,7 @@
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1591,7 +2856,7 @@
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
